--- a/Manufacturing Files/jlcpcbfiles/pending_bom_top_bot.xlsx
+++ b/Manufacturing Files/jlcpcbfiles/pending_bom_top_bot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RogerPC\Desktop\BITMAKER\BITMAKER\Projectes\EN CURSO\BITAXE\BITAXEmax\Manufacturing Files\jlcpcbfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RogerPC\Desktop\BITMAKER\BITMAKER\Projectes\EN CURSO\BITAXE\NerdAxe_ultra\Manufacturing Files\jlcpcbfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="225">
   <si>
     <t>Footprint</t>
   </si>
@@ -1084,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1277,7 +1277,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>222</v>
       </c>
@@ -1286,6 +1286,34 @@
       </c>
       <c r="C17" s="1" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
